--- a/experiment3_analysis.xlsx
+++ b/experiment3_analysis.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI\hw2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Technion\Courses\Semester10_Winter_2016-2017\236501_מבוא_לבינה_מלאכותית\HW\HW2\Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10230" windowHeight="3180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12765" windowHeight="1005"/>
   </bookViews>
   <sheets>
     <sheet name="experiment3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -649,48 +649,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - הדגשה1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - הדגשה2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - הדגשה3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - הדגשה4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - הדגשה5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - הדגשה6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="הדגשה1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="הדגשה2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="הדגשה3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="הדגשה4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="הדגשה5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="הדגשה6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="הערה" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="חישוב" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="טוב" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="טקסט אזהרה" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="טקסט הסברי" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="כותרת" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="כותרת 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="כותרת 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="כותרת 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="כותרת 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="ניטראלי" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="סה&quot;כ" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="פלט" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="קלט" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="רע" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="תא מסומן" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="תא מקושר" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -706,9 +706,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -739,14 +739,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="he-IL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0"/>
+              <a:rPr lang="he-IL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
               <a:t>השוואת מספר פיתוחי הצמתים למחיר המסלול</a:t>
             </a:r>
             <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -816,6 +815,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.22534926947803099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.142921893314023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26238829067320601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.218645152902322</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22715554223934201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15311695644343401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25652720750806002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.268314864214241</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.201697520249046</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.174292723401376</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23971971989135099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27573773446305799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17034563833865099</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.178278797235778</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17171517093192501</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28956650827875302</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.29739400105479602</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.30903587668113403</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20819419609121501</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.179416245374422</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -825,10 +884,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>37130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17780</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41282</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41040</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56056</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71052</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33620</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55205</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33960</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16410</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34339</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23680</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44490</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40939</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31879</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C770-4701-B96B-2A969B7C37FD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -864,6 +988,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.22534926947803099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.142921893314023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26238829067320601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.218645152902322</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22715554223934201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15311695644343401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25652720750806002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.268314864214241</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.201697520249046</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.174292723401376</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23971971989135099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27573773446305799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17034563833865099</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.178278797235778</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17171517093192501</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28956650827875302</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.29739400105479602</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.30903587668113403</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20819419609121501</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.179416245374422</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -873,10 +1057,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>16587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16820</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8206</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20775</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31928</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7690</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18265</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7675</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4097</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8155</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17284</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24901</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14703</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C770-4701-B96B-2A969B7C37FD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -892,8 +1141,8 @@
       <c:valAx>
         <c:axId val="217638504"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="0.4"/>
+          <c:orientation val="minMax"/>
+          <c:max val="0.32000000000000006"/>
           <c:min val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -932,14 +1181,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="he-IL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0"/>
+                  <a:rPr lang="he-IL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
                   <a:t>מחיר המסלול )זמן הנסיעה בו(</a:t>
                 </a:r>
                 <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1016,7 +1264,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="r"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1051,14 +1299,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="he-IL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0"/>
+                  <a:rPr lang="he-IL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
                   <a:t>מספר פיתוחי הצמתים</a:t>
                 </a:r>
                 <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1748,7 +1995,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="תרשים 5"/>
+        <xdr:cNvPr id="6" name="תרשים 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2031,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2065,8 +2318,408 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="7:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="7:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>40332</v>
+      </c>
+      <c r="B2">
+        <v>44194</v>
+      </c>
+      <c r="C2">
+        <v>37130</v>
+      </c>
+      <c r="D2">
+        <v>0.22534926947803099</v>
+      </c>
+      <c r="E2">
+        <v>16587</v>
+      </c>
+      <c r="F2">
+        <v>0.22534926947803099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>30435</v>
+      </c>
+      <c r="B3">
+        <v>89826</v>
+      </c>
+      <c r="C3">
+        <v>17780</v>
+      </c>
+      <c r="D3">
+        <v>0.142921893314023</v>
+      </c>
+      <c r="E3">
+        <v>5026</v>
+      </c>
+      <c r="F3">
+        <v>0.142921893314023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>45639</v>
+      </c>
+      <c r="B4">
+        <v>94894</v>
+      </c>
+      <c r="C4">
+        <v>41282</v>
+      </c>
+      <c r="D4">
+        <v>0.26238829067320601</v>
+      </c>
+      <c r="E4">
+        <v>16585</v>
+      </c>
+      <c r="F4">
+        <v>0.26238829067320601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>16744</v>
+      </c>
+      <c r="B5">
+        <v>85455</v>
+      </c>
+      <c r="C5">
+        <v>41968</v>
+      </c>
+      <c r="D5">
+        <v>0.218645152902322</v>
+      </c>
+      <c r="E5">
+        <v>16820</v>
+      </c>
+      <c r="F5">
+        <v>0.218645152902322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>51837</v>
+      </c>
+      <c r="B6">
+        <v>95453</v>
+      </c>
+      <c r="C6">
+        <v>41040</v>
+      </c>
+      <c r="D6">
+        <v>0.22715554223934201</v>
+      </c>
+      <c r="E6">
+        <v>14843</v>
+      </c>
+      <c r="F6">
+        <v>0.22715554223934201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>88607</v>
+      </c>
+      <c r="B7">
+        <v>66091</v>
+      </c>
+      <c r="C7">
+        <v>23825</v>
+      </c>
+      <c r="D7">
+        <v>0.15311695644343401</v>
+      </c>
+      <c r="E7">
+        <v>8206</v>
+      </c>
+      <c r="F7">
+        <v>0.15311695644343401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>27514</v>
+      </c>
+      <c r="B8">
+        <v>71797</v>
+      </c>
+      <c r="C8">
+        <v>56056</v>
+      </c>
+      <c r="D8">
+        <v>0.25652720750806002</v>
+      </c>
+      <c r="E8">
+        <v>20775</v>
+      </c>
+      <c r="F8">
+        <v>0.25652720750806002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10033</v>
+      </c>
+      <c r="B9">
+        <v>84029</v>
+      </c>
+      <c r="C9">
+        <v>71052</v>
+      </c>
+      <c r="D9">
+        <v>0.268314864214241</v>
+      </c>
+      <c r="E9">
+        <v>31928</v>
+      </c>
+      <c r="F9">
+        <v>0.268314864214241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>18416</v>
+      </c>
+      <c r="B10">
+        <v>45347</v>
+      </c>
+      <c r="C10">
+        <v>33620</v>
+      </c>
+      <c r="D10">
+        <v>0.201697520249046</v>
+      </c>
+      <c r="E10">
+        <v>9429</v>
+      </c>
+      <c r="F10">
+        <v>0.201697520249046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>22927</v>
+      </c>
+      <c r="B11">
+        <v>85269</v>
+      </c>
+      <c r="C11">
+        <v>26936</v>
+      </c>
+      <c r="D11">
+        <v>0.174292723401376</v>
+      </c>
+      <c r="E11">
+        <v>7690</v>
+      </c>
+      <c r="F11">
+        <v>0.174292723401376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>32462</v>
+      </c>
+      <c r="B12">
+        <v>29433</v>
+      </c>
+      <c r="C12">
+        <v>63020</v>
+      </c>
+      <c r="D12">
+        <v>0.23971971989135099</v>
+      </c>
+      <c r="E12">
+        <v>18265</v>
+      </c>
+      <c r="F12">
+        <v>0.23971971989135099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>19772</v>
+      </c>
+      <c r="B13">
+        <v>25366</v>
+      </c>
+      <c r="C13">
+        <v>55205</v>
+      </c>
+      <c r="D13">
+        <v>0.27573773446305799</v>
+      </c>
+      <c r="E13">
+        <v>24469</v>
+      </c>
+      <c r="F13">
+        <v>0.27573773446305799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>56018</v>
+      </c>
+      <c r="B14">
+        <v>73819</v>
+      </c>
+      <c r="C14">
+        <v>33960</v>
+      </c>
+      <c r="D14">
+        <v>0.17034563833865099</v>
+      </c>
+      <c r="E14">
+        <v>7675</v>
+      </c>
+      <c r="F14">
+        <v>0.17034563833865099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>91887</v>
+      </c>
+      <c r="B15">
+        <v>92634</v>
+      </c>
+      <c r="C15">
+        <v>16410</v>
+      </c>
+      <c r="D15">
+        <v>0.178278797235778</v>
+      </c>
+      <c r="E15">
+        <v>4097</v>
+      </c>
+      <c r="F15">
+        <v>0.178278797235778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>94432</v>
+      </c>
+      <c r="B16">
+        <v>95558</v>
+      </c>
+      <c r="C16">
+        <v>34339</v>
+      </c>
+      <c r="D16">
+        <v>0.17171517093192501</v>
+      </c>
+      <c r="E16">
+        <v>8455</v>
+      </c>
+      <c r="F16">
+        <v>0.17171517093192501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>74682</v>
+      </c>
+      <c r="B17">
+        <v>62087</v>
+      </c>
+      <c r="C17">
+        <v>23680</v>
+      </c>
+      <c r="D17">
+        <v>0.28956650827875302</v>
+      </c>
+      <c r="E17">
+        <v>8155</v>
+      </c>
+      <c r="F17">
+        <v>0.28956650827875302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20874</v>
+      </c>
+      <c r="B18">
+        <v>63767</v>
+      </c>
+      <c r="C18">
+        <v>44490</v>
+      </c>
+      <c r="D18">
+        <v>0.29739400105479602</v>
+      </c>
+      <c r="E18">
+        <v>17284</v>
+      </c>
+      <c r="F18">
+        <v>0.29739400105479602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>74278</v>
+      </c>
+      <c r="B19">
+        <v>27578</v>
+      </c>
+      <c r="C19">
+        <v>40939</v>
+      </c>
+      <c r="D19">
+        <v>0.30903587668113403</v>
+      </c>
+      <c r="E19">
+        <v>24901</v>
+      </c>
+      <c r="F19">
+        <v>0.30903587668113403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>96556</v>
+      </c>
+      <c r="B20">
+        <v>68931</v>
+      </c>
+      <c r="C20">
+        <v>44090</v>
+      </c>
+      <c r="D20">
+        <v>0.20819419609121501</v>
+      </c>
+      <c r="E20">
+        <v>14703</v>
+      </c>
+      <c r="F20">
+        <v>0.20819419609121501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>50921</v>
+      </c>
+      <c r="B21">
+        <v>17831</v>
+      </c>
+      <c r="C21">
+        <v>31879</v>
+      </c>
+      <c r="D21">
+        <v>0.179416245374422</v>
+      </c>
+      <c r="E21">
+        <v>12933</v>
+      </c>
+      <c r="F21">
+        <v>0.179416245374422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G23" s="7" t="s">
         <v>6</v>
       </c>
@@ -2086,264 +2739,264 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="7:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G24" s="7">
         <f>D2</f>
-        <v>0</v>
+        <v>0.22534926947803099</v>
       </c>
       <c r="H24" s="5">
         <f>C2</f>
-        <v>0</v>
+        <v>37130</v>
       </c>
       <c r="I24" s="6">
         <f>E2</f>
-        <v>0</v>
+        <v>16587</v>
       </c>
       <c r="J24" s="7">
         <f>D12</f>
-        <v>0</v>
+        <v>0.23971971989135099</v>
       </c>
       <c r="K24" s="5">
         <f>C12</f>
-        <v>0</v>
+        <v>63020</v>
       </c>
       <c r="L24" s="4">
         <f>E12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="7:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>18265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G25" s="7">
         <f t="shared" ref="G25:G33" si="0">D3</f>
-        <v>0</v>
+        <v>0.142921893314023</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" ref="H25:H33" si="1">C3</f>
-        <v>0</v>
+        <v>17780</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" ref="I25:I33" si="2">E3</f>
-        <v>0</v>
+        <v>5026</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" ref="J25:J33" si="3">D13</f>
-        <v>0</v>
+        <v>0.27573773446305799</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" ref="K25:K33" si="4">C13</f>
-        <v>0</v>
+        <v>55205</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" ref="L25:L33" si="5">E13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="7:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>24469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G26" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.26238829067320601</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41282</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16585</v>
       </c>
       <c r="J26" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.17034563833865099</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>33960</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="7:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>7675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G27" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.218645152902322</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41968</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16820</v>
       </c>
       <c r="J27" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.178278797235778</v>
       </c>
       <c r="K27" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>16410</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="7:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G28" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22715554223934201</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41040</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14843</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.17171517093192501</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>34339</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="7:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>8455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G29" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.15311695644343401</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23825</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8206</v>
       </c>
       <c r="J29" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.28956650827875302</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>23680</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="7:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>8155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G30" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25652720750806002</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>56056</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20775</v>
       </c>
       <c r="J30" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.29739400105479602</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>44490</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="7:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>17284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G31" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.268314864214241</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>71052</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>31928</v>
       </c>
       <c r="J31" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.30903587668113403</v>
       </c>
       <c r="K31" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40939</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="7:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>24901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G32" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.201697520249046</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33620</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9429</v>
       </c>
       <c r="J32" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.20819419609121501</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>44090</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14703</v>
       </c>
     </row>
     <row r="33" spans="7:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G33" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.174292723401376</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26936</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7690</v>
       </c>
       <c r="J33" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.179416245374422</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>31879</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12933</v>
       </c>
     </row>
     <row r="34" spans="7:12" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>

--- a/experiment3_analysis.xlsx
+++ b/experiment3_analysis.xlsx
@@ -1182,7 +1182,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="he-IL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t>מחיר המסלול )זמן הנסיעה בו(</a:t>
+                  <a:t>מחיר המסלול </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="he-IL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>זמן הנסיעה בו</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>(</a:t>
                 </a:r>
                 <a:endParaRPr lang="he-IL"/>
               </a:p>
@@ -2284,7 +2296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
